--- a/Vuejs/vue01docs/Vue정리-202000606.xlsx
+++ b/Vuejs/vue01docs/Vue정리-202000606.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20200822.VueReact\VueReact\Vuejs\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B49A6-2D7A-484F-8AEC-8BAF1267697C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
   <si>
     <t>beforeDestroy</t>
   </si>
@@ -480,19 +486,6 @@
     <t xml:space="preserve">수동 실행 + 이벤트 처리
 이벤트 및 화면 동작 처리 메서드. 
 수동 수행 ==&gt; 호출할 때마다 로직 수행. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 실행 + 동기식 처리
-watch 속성은 data 속성 값의 변화를 감지하여 자동으로 특정 로직을 수행한다.
-computed 속성과 유사하지만 장시간 소요되는 비동기 처리에 적합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 실행 + 비동기식 처리
-computed 속성은 기존 값을 통해 새로운 값을 도출 할때 사용한다.
-computed 에서 정의하는 함수는 반드시 값을 반환하도록 작성되어야 한다
-단시간 소요되는 동기 처리에 적합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,12 +838,29 @@
     <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ajax통신할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 실행 + 동기식 처리
+computed 속성은 기존 값을 통해 새로운 값을 도출 할때 사용한다.
+computed 에서 정의하는 함수는 반드시 값을 반환하도록 작성되어야 한다
+단시간 소요되는 동기 처리에 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 실행 + 비동기식 처리
+watch 속성은 data 속성 값의 변화를 감지하여 자동으로 특정 로직을 수행한다.
+computed 속성과 유사하지만 장시간 소요되는 비동기 처리에 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,6 +980,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1059,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,6 +1196,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1190,6 +1209,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1212,7 +1234,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="직선 연결선 4"/>
+        <xdr:cNvPr id="5" name="직선 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1266,7 +1294,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="object 5"/>
+        <xdr:cNvPr id="2" name="object 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1436,7 +1470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="내용 개체 틀 3"/>
+        <xdr:cNvPr id="3" name="내용 개체 틀 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noGrp="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1508,7 +1548,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="직선 연결선 1"/>
+        <xdr:cNvPr id="2" name="직선 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1562,7 +1608,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1616,20 +1668,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="그룹 32"/>
+        <xdr:cNvPr id="33" name="그룹 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12122053" y="3682626"/>
-          <a:ext cx="4423703" cy="4201404"/>
+          <a:off x="12122053" y="3625476"/>
+          <a:ext cx="4423703" cy="3982329"/>
           <a:chOff x="6731785" y="4093740"/>
           <a:chExt cx="2610165" cy="2528647"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="모서리가 둥근 직사각형 16"/>
+          <xdr:cNvPr id="17" name="모서리가 둥근 직사각형 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1798,7 +1862,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 17"/>
+          <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1967,7 +2037,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="꺾인 연결선 19"/>
+          <xdr:cNvPr id="20" name="꺾인 연결선 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="18" idx="0"/>
             <a:endCxn id="17" idx="0"/>
@@ -2011,7 +2087,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="꺾인 연결선 20"/>
+          <xdr:cNvPr id="21" name="꺾인 연결선 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="17" idx="2"/>
             <a:endCxn id="18" idx="2"/>
@@ -2055,7 +2137,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="TextBox 23"/>
+          <xdr:cNvPr id="23" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2223,7 +2311,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="TextBox 23"/>
+          <xdr:cNvPr id="32" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2407,12 +2501,18 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="그룹 33"/>
+        <xdr:cNvPr id="34" name="그룹 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11737182" y="1100137"/>
+          <a:off x="11737182" y="1042987"/>
           <a:ext cx="4884463" cy="2289731"/>
           <a:chOff x="1362075" y="4295775"/>
           <a:chExt cx="5465488" cy="2313543"/>
@@ -2420,7 +2520,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="모서리가 둥근 직사각형 34"/>
+          <xdr:cNvPr id="35" name="모서리가 둥근 직사각형 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2577,7 +2683,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 35"/>
+          <xdr:cNvPr id="36" name="모서리가 둥근 직사각형 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2731,13 +2843,6 @@
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
               <a:t>컴포넌트</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t/>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
@@ -2775,7 +2880,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="TextBox 8"/>
+          <xdr:cNvPr id="37" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2929,13 +3040,6 @@
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
               <a:t>인스턴스</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t/>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
@@ -2973,7 +3077,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="꺾인 연결선 37"/>
+          <xdr:cNvPr id="38" name="꺾인 연결선 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="36" idx="1"/>
             <a:endCxn id="37" idx="1"/>
@@ -3017,7 +3127,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="꺾인 연결선 38"/>
+          <xdr:cNvPr id="39" name="꺾인 연결선 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="37" idx="3"/>
             <a:endCxn id="36" idx="3"/>
@@ -3061,7 +3177,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="TextBox 39"/>
+          <xdr:cNvPr id="40" name="TextBox 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3104,7 +3226,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="TextBox 40"/>
+          <xdr:cNvPr id="41" name="TextBox 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3193,7 +3321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3226,9 +3354,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3261,6 +3406,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3436,14 +3598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" customWidth="1"/>
@@ -3455,7 +3617,7 @@
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -3468,9 +3630,9 @@
       <c r="H1" s="36"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="25.5" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3481,7 +3643,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3494,7 +3656,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3502,7 +3664,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3672,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
@@ -3526,7 +3688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -3566,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3593,7 +3755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
@@ -3606,7 +3768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="26" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +3779,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
@@ -3639,7 +3801,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1"/>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
@@ -3648,14 +3810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="21" bestFit="1" customWidth="1"/>
@@ -3664,7 +3826,7 @@
     <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
@@ -3686,7 +3848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="28.5">
       <c r="A3" s="38"/>
       <c r="B3" s="15" t="s">
         <v>5</v>
@@ -3695,14 +3857,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="38"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42.75">
       <c r="A5" s="38"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
@@ -3711,37 +3873,40 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="38"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="38"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="51.75">
       <c r="A8" s="38"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -3757,21 +3922,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" style="8" customWidth="1"/>
     <col min="3" max="16384" width="46.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
@@ -3779,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -3787,7 +3952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="39" t="s">
         <v>80</v>
       </c>
@@ -3795,13 +3960,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>77</v>
       </c>
@@ -3809,7 +3974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -3817,7 +3982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -3825,7 +3990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="40.5">
       <c r="A8" s="4" t="s">
         <v>71</v>
       </c>
@@ -3833,7 +3998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="27">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +4006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -3860,14 +4025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="16" bestFit="1" customWidth="1"/>
@@ -3876,7 +4041,7 @@
     <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -3888,7 +4053,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="20.25">
       <c r="A2" s="36" t="s">
         <v>46</v>
       </c>
@@ -3900,7 +4065,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3912,7 +4077,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3922,7 +4087,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -3936,7 +4101,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,7 +4111,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -3956,7 +4121,7 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -3964,7 +4129,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -3972,13 +4137,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -3986,13 +4151,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="32.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
@@ -4006,7 +4171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="27">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -4020,7 +4185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -4034,13 +4199,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="34.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4054,7 +4219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -4068,13 +4233,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -4086,7 +4251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="54">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -4111,14 +4276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="8" bestFit="1" customWidth="1"/>
@@ -4127,22 +4292,22 @@
     <col min="6" max="16384" width="41.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
@@ -4153,38 +4318,38 @@
         <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.25">
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="310.5">
+      <c r="B8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="299.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="11" t="s">
         <v>91</v>
       </c>
@@ -4198,63 +4363,63 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="18">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="14.25">
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="18">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="18">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="18">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="18.75">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" ht="18.75">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5">
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" ht="18.75">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5">
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" ht="18.75">
       <c r="E25" s="3"/>
     </row>
   </sheetData>
@@ -4265,14 +4430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
@@ -4284,22 +4449,22 @@
     <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>97</v>
@@ -4317,7 +4482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="270.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="256.5">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>92</v>
@@ -4332,10 +4497,10 @@
         <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="106.5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="103.5">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>93</v>
@@ -4350,10 +4515,10 @@
         <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="162">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
         <v>94</v>
@@ -4368,10 +4533,10 @@
         <v>111</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="99.75" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="94.5">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
         <v>96</v>
@@ -4380,16 +4545,16 @@
         <v>107</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="156.75" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="148.5">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>95</v>
@@ -4402,7 +4567,7 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
